--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_18-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_18-23.xlsx
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
@@ -1629,13 +1632,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1655,13 +1658,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1681,13 +1684,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1707,13 +1710,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1733,17 +1736,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1759,17 +1762,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1785,17 +1788,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1811,13 +1814,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1837,17 +1840,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1855,7 +1858,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1863,17 +1866,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1889,17 +1892,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1907,7 +1910,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1915,17 +1918,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1941,17 +1944,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1993,17 +1996,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2011,7 +2014,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2019,17 +2022,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2051,11 +2054,11 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2071,13 +2074,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2089,7 +2092,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2097,17 +2100,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2123,17 +2126,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>2.5</v>
+        <v>66</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2141,7 +2144,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2149,13 +2152,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>48</v>
+        <v>2.5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2175,13 +2178,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2207,7 +2210,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2227,13 +2230,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2253,17 +2256,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2271,7 +2274,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2279,17 +2282,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2297,7 +2300,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2305,17 +2308,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2323,7 +2326,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2331,17 +2334,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2349,7 +2352,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2357,7 +2360,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2367,7 +2370,7 @@
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2375,7 +2378,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2383,13 +2386,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2401,7 +2404,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2409,17 +2412,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2435,17 +2438,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2453,7 +2456,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2461,13 +2464,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2487,17 +2490,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2505,7 +2508,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2513,17 +2516,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2539,13 +2542,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2553,37 +2556,63 @@
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
-      <c r="K68" s="10">
-        <v>5057.8299999999999</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" ht="17.25" customHeight="1">
-      <c t="s" r="A69" s="11">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>99</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
         <v>100</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c t="s" r="F69" s="12">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>45</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="K69" s="10">
+        <v>5147.8299999999999</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="11">
         <v>101</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c t="s" r="I69" s="14">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c t="s" r="F70" s="12">
         <v>102</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c t="s" r="I70" s="14">
+        <v>103</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="206">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2783,10 +2812,13 @@
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:N70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
